--- a/Gestion Stock 2026/Gestion de Stock Robeia/Suivie pose Compteur Robeia 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Robeia/Suivie pose Compteur Robeia 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Robeia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8878071C-1D7A-4100-97BF-076258460DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3539C1CB-1EDF-4595-A0F2-1C18BE89897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Mois de JANVIER  2026</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>15/21</t>
+  </si>
+  <si>
+    <t>2025177870</t>
+  </si>
+  <si>
+    <t>NB(696/2024)</t>
+  </si>
+  <si>
+    <t>Khatir laala</t>
   </si>
 </sst>
 </file>
@@ -369,12 +384,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -391,8 +406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="590550" y="1343025"/>
-          <a:ext cx="4552950" cy="7553325"/>
+          <a:off x="590550" y="1590675"/>
+          <a:ext cx="4533900" cy="7305675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -708,7 +723,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +794,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="17">
         <f>SUMIF(F7:F38,"NB*",G7:G38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -819,7 +834,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="19">
         <f>SUM(K2:K4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,15 +868,27 @@
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12">
+        <v>46048</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="1"/>

--- a/Gestion Stock 2026/Gestion de Stock Robeia/Suivie pose Compteur Robeia 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Robeia/Suivie pose Compteur Robeia 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Robeia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3539C1CB-1EDF-4595-A0F2-1C18BE89897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C39603-BDF1-4021-AC88-F9BE9BEC5CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="12">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>22</v>
